--- a/Base_pacientes.xlsx
+++ b/Base_pacientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franchisky\Documents\Repositorio Test\CronApp-Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franchisky\Documents\Cronapp r\Cronapp pacientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B5EEF4-1B6C-4CD1-A558-F8E552767D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D822AA0-E7F5-4923-AC30-A3703FF04011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1EE35D8-6D1B-4B36-AA70-9B1B7073069B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30DDC6F0-1FEC-456A-9A1E-4D3096E9055F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -458,17 +458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2442FC3-E338-497D-A200-1E900E9A4A30}">
-  <dimension ref="A1:E245"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D52F37-91DD-4235-941D-68F121325415}">
+  <dimension ref="A1:E374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -761,14 +758,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="5">
-        <v>45224</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>45261</v>
+      </c>
+      <c r="C18" s="6">
+        <v>135</v>
+      </c>
       <c r="D18" s="6">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -776,16 +775,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="9">
-        <v>45225</v>
+        <v>45262</v>
       </c>
       <c r="C19" s="10">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D19" s="10">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -793,16 +792,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="5">
-        <v>45226</v>
+        <v>45263</v>
       </c>
       <c r="C20" s="6">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D20" s="6">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -810,16 +809,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="9">
-        <v>45227</v>
+        <v>45264</v>
       </c>
       <c r="C21" s="10">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D21" s="10">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -827,16 +826,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="5">
-        <v>45228</v>
+        <v>45265</v>
       </c>
       <c r="C22" s="6">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D22" s="6">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -844,16 +843,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="9">
-        <v>45229</v>
+        <v>45266</v>
       </c>
       <c r="C23" s="10">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D23" s="10">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
@@ -861,16 +860,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="5">
-        <v>45230</v>
+        <v>45267</v>
       </c>
       <c r="C24" s="6">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D24" s="6">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
@@ -878,16 +877,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="9">
-        <v>45231</v>
+        <v>45268</v>
       </c>
       <c r="C25" s="10">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D25" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
@@ -895,16 +894,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="5">
-        <v>45232</v>
+        <v>45269</v>
       </c>
       <c r="C26" s="6">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D26" s="6">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
@@ -912,16 +911,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="9">
-        <v>45233</v>
+        <v>45270</v>
       </c>
       <c r="C27" s="10">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D27" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
@@ -929,16 +928,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="5">
-        <v>45234</v>
+        <v>45271</v>
       </c>
       <c r="C28" s="6">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D28" s="6">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
@@ -946,16 +945,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="9">
-        <v>45235</v>
+        <v>45272</v>
       </c>
       <c r="C29" s="10">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D29" s="10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E29" s="11">
         <v>1</v>
@@ -963,571 +962,575 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="5">
-        <v>45222</v>
+        <v>45273</v>
       </c>
       <c r="C30" s="6">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D30" s="6">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="9">
-        <v>45223</v>
+        <v>45274</v>
       </c>
       <c r="C31" s="10">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="D31" s="10">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E31" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" s="5">
-        <v>45224</v>
+        <v>45275</v>
       </c>
       <c r="C32" s="6">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D32" s="6">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="E32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" s="9">
-        <v>45225</v>
+        <v>45276</v>
       </c>
       <c r="C33" s="10">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D33" s="10">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="E33" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="5">
-        <v>45226</v>
+        <v>45277</v>
       </c>
       <c r="C34" s="6">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D34" s="6">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="E34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" s="9">
-        <v>45227</v>
+        <v>45278</v>
       </c>
       <c r="C35" s="10">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D35" s="10">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" s="5">
-        <v>45228</v>
+        <v>45279</v>
       </c>
       <c r="C36" s="6">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="D36" s="6">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="9">
-        <v>45229</v>
-      </c>
-      <c r="C37" s="10">
-        <v>198</v>
-      </c>
+        <v>45224</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="10">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E37" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="5">
-        <v>45231</v>
+        <v>45225</v>
       </c>
       <c r="C38" s="6">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D38" s="6">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="E38" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="9">
-        <v>45232</v>
+        <v>45226</v>
       </c>
       <c r="C39" s="10">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D39" s="10">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="E39" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="5">
-        <v>45233</v>
+        <v>45227</v>
       </c>
       <c r="C40" s="6">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D40" s="6">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="E40" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="9">
-        <v>45234</v>
+        <v>45228</v>
       </c>
       <c r="C41" s="10">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D41" s="10">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E41" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="5">
-        <v>45235</v>
+        <v>45229</v>
       </c>
       <c r="C42" s="6">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="6">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="E42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" s="9">
-        <v>45236</v>
+        <v>45230</v>
       </c>
       <c r="C43" s="10">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D43" s="10">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="E43" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="5">
-        <v>45237</v>
+        <v>45231</v>
       </c>
       <c r="C44" s="6">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="D44" s="6">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" s="9">
-        <v>45215</v>
-      </c>
-      <c r="C45" s="10"/>
+        <v>45232</v>
+      </c>
+      <c r="C45" s="10">
+        <v>109</v>
+      </c>
       <c r="D45" s="10">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="E45" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" s="5">
-        <v>45216</v>
+        <v>45233</v>
       </c>
       <c r="C46" s="6">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D46" s="6">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="E46" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="9">
-        <v>45217</v>
+        <v>45234</v>
       </c>
       <c r="C47" s="10">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D47" s="10">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="E47" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="5">
-        <v>45218</v>
+        <v>45235</v>
       </c>
       <c r="C48" s="6">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D48" s="6">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="E48" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="9">
-        <v>45219</v>
+        <v>45257</v>
       </c>
       <c r="C49" s="10">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="D49" s="10">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E49" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" s="5">
-        <v>45220</v>
+        <v>45258</v>
       </c>
       <c r="C50" s="6">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D50" s="6">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="E50" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="9">
-        <v>45221</v>
+        <v>45259</v>
       </c>
       <c r="C51" s="10">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D51" s="10">
-        <v>273</v>
+        <v>127</v>
       </c>
       <c r="E51" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="5">
-        <v>45223</v>
+        <v>45260</v>
       </c>
       <c r="C52" s="6">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D52" s="6">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" s="9">
-        <v>45224</v>
+        <v>45261</v>
       </c>
       <c r="C53" s="10">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="D53" s="10">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="E53" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" s="5">
-        <v>45225</v>
+        <v>45262</v>
       </c>
       <c r="C54" s="6">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D54" s="6">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="E54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" s="9">
-        <v>45226</v>
+        <v>45263</v>
       </c>
       <c r="C55" s="10">
-        <v>300</v>
-      </c>
-      <c r="D55" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="D55" s="10">
+        <v>116</v>
+      </c>
       <c r="E55" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" s="5">
-        <v>45227</v>
+        <v>45271</v>
       </c>
       <c r="C56" s="6">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="D56" s="6">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="E56" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="9">
-        <v>45229</v>
+        <v>45272</v>
       </c>
       <c r="C57" s="10">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="D57" s="10">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="E57" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="5">
-        <v>45230</v>
+        <v>45273</v>
       </c>
       <c r="C58" s="6">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D58" s="6">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E58" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" s="9">
-        <v>45233</v>
+        <v>45274</v>
       </c>
       <c r="C59" s="10">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="10">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="E59" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" s="5">
-        <v>45234</v>
+        <v>45275</v>
       </c>
       <c r="C60" s="6">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="D60" s="6">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="E60" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="9">
-        <v>45235</v>
+        <v>45276</v>
       </c>
       <c r="C61" s="10">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="D61" s="10">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="E61" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" s="5">
-        <v>45236</v>
+        <v>45277</v>
       </c>
       <c r="C62" s="6">
-        <v>120</v>
-      </c>
-      <c r="D62" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="D62" s="6">
+        <v>100</v>
+      </c>
       <c r="E62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="9">
-        <v>45244</v>
+        <v>45222</v>
       </c>
       <c r="C63" s="10">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D63" s="10">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="E63" s="11">
         <v>2</v>
@@ -1535,16 +1538,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="5">
-        <v>45245</v>
+        <v>45223</v>
       </c>
       <c r="C64" s="6">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D64" s="6">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="E64" s="7">
         <v>2</v>
@@ -1552,16 +1555,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="9">
-        <v>45246</v>
+        <v>45224</v>
       </c>
       <c r="C65" s="10">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="D65" s="10">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="E65" s="11">
         <v>2</v>
@@ -1569,16 +1572,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66" s="5">
-        <v>45258</v>
+        <v>45225</v>
       </c>
       <c r="C66" s="6">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D66" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E66" s="7">
         <v>2</v>
@@ -1586,16 +1589,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B67" s="9">
-        <v>45259</v>
+        <v>45226</v>
       </c>
       <c r="C67" s="10">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D67" s="10">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E67" s="11">
         <v>2</v>
@@ -1603,16 +1606,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B68" s="5">
-        <v>45260</v>
+        <v>45227</v>
       </c>
       <c r="C68" s="6">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="D68" s="6">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E68" s="7">
         <v>2</v>
@@ -1620,16 +1623,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" s="9">
-        <v>45261</v>
+        <v>45228</v>
       </c>
       <c r="C69" s="10">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="D69" s="10">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="E69" s="11">
         <v>2</v>
@@ -1637,16 +1640,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B70" s="5">
-        <v>45262</v>
+        <v>45229</v>
       </c>
       <c r="C70" s="6">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D70" s="6">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E70" s="7">
         <v>2</v>
@@ -1654,16 +1657,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B71" s="9">
-        <v>45263</v>
+        <v>45231</v>
       </c>
       <c r="C71" s="10">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="D71" s="10">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="E71" s="11">
         <v>2</v>
@@ -1671,16 +1674,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72" s="5">
-        <v>45264</v>
+        <v>45232</v>
       </c>
       <c r="C72" s="6">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="D72" s="6">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E72" s="7">
         <v>2</v>
@@ -1688,554 +1691,556 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B73" s="9">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="C73" s="10">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D73" s="10">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="E73" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B74" s="5">
-        <v>45238</v>
+        <v>45234</v>
       </c>
       <c r="C74" s="6">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D74" s="6">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="E74" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B75" s="9">
-        <v>45239</v>
+        <v>45235</v>
       </c>
       <c r="C75" s="10">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D75" s="10">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="E75" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76" s="5">
-        <v>45240</v>
+        <v>45236</v>
       </c>
       <c r="C76" s="6">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D76" s="6">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="E76" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B77" s="9">
-        <v>45241</v>
+        <v>45237</v>
       </c>
       <c r="C77" s="10">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="D77" s="10">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="E77" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B78" s="5">
-        <v>45242</v>
+        <v>45262</v>
       </c>
       <c r="C78" s="6">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D78" s="6">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="E78" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79" s="9">
-        <v>45243</v>
+        <v>45263</v>
       </c>
       <c r="C79" s="10">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D79" s="10">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="E79" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B80" s="5">
-        <v>45244</v>
+        <v>45264</v>
       </c>
       <c r="C80" s="6">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="D80" s="6">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E80" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B81" s="9">
-        <v>45245</v>
+        <v>45265</v>
       </c>
       <c r="C81" s="10">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D81" s="10">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="E81" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B82" s="5">
-        <v>45246</v>
+        <v>45266</v>
       </c>
       <c r="C82" s="6">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D82" s="6">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E82" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B83" s="9">
-        <v>45247</v>
+        <v>45267</v>
       </c>
       <c r="C83" s="10">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D83" s="10">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E83" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B84" s="5">
-        <v>45248</v>
+        <v>45268</v>
       </c>
       <c r="C84" s="6">
-        <v>143</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="D84" s="6">
+        <v>122</v>
+      </c>
       <c r="E84" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B85" s="9">
-        <v>45249</v>
+        <v>45269</v>
       </c>
       <c r="C85" s="10">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D85" s="10">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E85" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B86" s="5">
-        <v>45250</v>
+        <v>45270</v>
       </c>
       <c r="C86" s="6">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D86" s="6">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="E86" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B87" s="9">
-        <v>45251</v>
+        <v>45272</v>
       </c>
       <c r="C87" s="10">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D87" s="10">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="E87" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B88" s="5">
-        <v>45252</v>
+        <v>45273</v>
       </c>
       <c r="C88" s="6">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="D88" s="6">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="E88" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B89" s="9">
-        <v>45253</v>
+        <v>45274</v>
       </c>
       <c r="C89" s="10">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D89" s="10">
-        <v>276</v>
+        <v>152</v>
       </c>
       <c r="E89" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B90" s="5">
-        <v>45254</v>
+        <v>45275</v>
       </c>
       <c r="C90" s="6">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D90" s="6">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="E90" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B91" s="9">
-        <v>45255</v>
+        <v>45276</v>
       </c>
       <c r="C91" s="10">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D91" s="10">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="E91" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B92" s="5">
-        <v>45256</v>
+        <v>45277</v>
       </c>
       <c r="C92" s="6">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D92" s="6">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="E92" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B93" s="9">
-        <v>45257</v>
+        <v>45278</v>
       </c>
       <c r="C93" s="10">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D93" s="10">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="E93" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B94" s="5">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="C94" s="6">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D94" s="6">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="E94" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B95" s="9">
-        <v>45259</v>
+        <v>45280</v>
       </c>
       <c r="C95" s="10">
-        <v>102</v>
-      </c>
-      <c r="D95" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="D95" s="10">
+        <v>123</v>
+      </c>
       <c r="E95" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B96" s="5">
-        <v>45260</v>
+        <v>45281</v>
       </c>
       <c r="C96" s="6">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D96" s="6">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="E96" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>45261</v>
+        <v>45282</v>
       </c>
       <c r="C97" s="10">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D97" s="10">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="E97" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B98" s="5">
-        <v>45262</v>
+        <v>45283</v>
       </c>
       <c r="C98" s="6">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D98" s="6">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E98" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B99" s="9">
-        <v>45263</v>
+        <v>45284</v>
       </c>
       <c r="C99" s="10">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D99" s="10">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="E99" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B100" s="5">
-        <v>45264</v>
+        <v>45285</v>
       </c>
       <c r="C100" s="6">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D100" s="6">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E100" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B101" s="9">
-        <v>45265</v>
+        <v>45286</v>
       </c>
       <c r="C101" s="10">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D101" s="10">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E101" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B102" s="5">
-        <v>45266</v>
+        <v>45287</v>
       </c>
       <c r="C102" s="6">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D102" s="6">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="E102" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>45267</v>
+        <v>45288</v>
       </c>
       <c r="C103" s="10">
-        <v>82</v>
-      </c>
-      <c r="D103" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="D103" s="10">
+        <v>125</v>
+      </c>
       <c r="E103" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B104" s="5">
-        <v>45229</v>
+        <v>45289</v>
       </c>
       <c r="C104" s="6">
-        <v>114</v>
-      </c>
-      <c r="D104" s="6">
-        <v>215</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D104" s="6"/>
       <c r="E104" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B105" s="9">
-        <v>45230</v>
-      </c>
-      <c r="C105" s="10">
-        <v>107</v>
-      </c>
+        <v>45215</v>
+      </c>
+      <c r="C105" s="10"/>
       <c r="D105" s="10">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="E105" s="11">
         <v>2</v>
@@ -2243,16 +2248,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B106" s="5">
-        <v>45231</v>
+        <v>45216</v>
       </c>
       <c r="C106" s="6">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="D106" s="6">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="E106" s="7">
         <v>2</v>
@@ -2260,16 +2265,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B107" s="9">
-        <v>45232</v>
+        <v>45217</v>
       </c>
       <c r="C107" s="10">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D107" s="10">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E107" s="11">
         <v>2</v>
@@ -2277,16 +2282,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B108" s="5">
-        <v>45233</v>
+        <v>45218</v>
       </c>
       <c r="C108" s="6">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D108" s="6">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="E108" s="7">
         <v>2</v>
@@ -2294,16 +2299,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B109" s="9">
-        <v>45234</v>
+        <v>45219</v>
       </c>
       <c r="C109" s="10">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D109" s="10">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E109" s="11">
         <v>2</v>
@@ -2311,16 +2316,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B110" s="5">
-        <v>45235</v>
+        <v>45220</v>
       </c>
       <c r="C110" s="6">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D110" s="6">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="E110" s="7">
         <v>2</v>
@@ -2328,390 +2333,386 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B111" s="9">
-        <v>45229</v>
+        <v>45221</v>
       </c>
       <c r="C111" s="10">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D111" s="10">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E111" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B112" s="5">
-        <v>45230</v>
+        <v>45223</v>
       </c>
       <c r="C112" s="6">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="D112" s="6">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="E112" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B113" s="9">
-        <v>45231</v>
+        <v>45224</v>
       </c>
       <c r="C113" s="10">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="D113" s="10">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E113" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B114" s="5">
-        <v>45232</v>
+        <v>45225</v>
       </c>
       <c r="C114" s="6">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="D114" s="6">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E114" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B115" s="9">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="C115" s="10">
-        <v>255</v>
-      </c>
-      <c r="D115" s="10">
-        <v>263</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D115" s="10"/>
       <c r="E115" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B116" s="5">
-        <v>45234</v>
+        <v>45227</v>
       </c>
       <c r="C116" s="6">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="D116" s="6">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="E116" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B117" s="9">
-        <v>45221</v>
+        <v>45229</v>
       </c>
       <c r="C117" s="10">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="D117" s="10">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E117" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B118" s="5">
-        <v>45222</v>
+        <v>45230</v>
       </c>
       <c r="C118" s="6">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D118" s="6">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="E118" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B119" s="9">
-        <v>45223</v>
+        <v>45233</v>
       </c>
       <c r="C119" s="10">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D119" s="10">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="E119" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B120" s="5">
-        <v>45224</v>
+        <v>45234</v>
       </c>
       <c r="C120" s="6">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="D120" s="6">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E120" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B121" s="9">
-        <v>45225</v>
+        <v>45235</v>
       </c>
       <c r="C121" s="10">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D121" s="10">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="E121" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B122" s="5">
-        <v>45226</v>
+        <v>45236</v>
       </c>
       <c r="C122" s="6">
-        <v>110</v>
-      </c>
-      <c r="D122" s="6">
-        <v>220</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D122" s="6"/>
       <c r="E122" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B123" s="9">
-        <v>45227</v>
+        <v>45244</v>
       </c>
       <c r="C123" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D123" s="10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E123" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B124" s="5">
-        <v>45228</v>
+        <v>45245</v>
       </c>
       <c r="C124" s="6">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D124" s="6">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="E124" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B125" s="9">
-        <v>45229</v>
+        <v>45246</v>
       </c>
       <c r="C125" s="10">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D125" s="10">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="E125" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B126" s="5">
-        <v>45230</v>
+        <v>45258</v>
       </c>
       <c r="C126" s="6">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D126" s="6">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="E126" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B127" s="9">
-        <v>45231</v>
+        <v>45259</v>
       </c>
       <c r="C127" s="10">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D127" s="10">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E127" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B128" s="5">
-        <v>45232</v>
+        <v>45260</v>
       </c>
       <c r="C128" s="6">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D128" s="6">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="E128" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B129" s="9">
-        <v>45233</v>
+        <v>45261</v>
       </c>
       <c r="C129" s="10">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D129" s="10">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="E129" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B130" s="5">
-        <v>45234</v>
+        <v>45262</v>
       </c>
       <c r="C130" s="6">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D130" s="6">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E130" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B131" s="9">
-        <v>45235</v>
+        <v>45263</v>
       </c>
       <c r="C131" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D131" s="10">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E131" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B132" s="5">
-        <v>45236</v>
+        <v>45264</v>
       </c>
       <c r="C132" s="6">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D132" s="6">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E132" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B133" s="9">
         <v>45237</v>
       </c>
       <c r="C133" s="10">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D133" s="10">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="E133" s="11">
         <v>1</v>
@@ -2719,16 +2720,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B134" s="5">
         <v>45238</v>
       </c>
       <c r="C134" s="6">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D134" s="6">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E134" s="7">
         <v>1</v>
@@ -2736,16 +2737,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B135" s="9">
         <v>45239</v>
       </c>
       <c r="C135" s="10">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D135" s="10">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="E135" s="11">
         <v>1</v>
@@ -2753,16 +2754,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B136" s="5">
         <v>45240</v>
       </c>
       <c r="C136" s="6">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D136" s="6">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="E136" s="7">
         <v>1</v>
@@ -2770,16 +2771,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B137" s="9">
         <v>45241</v>
       </c>
       <c r="C137" s="10">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D137" s="10">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="E137" s="11">
         <v>1</v>
@@ -2787,16 +2788,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B138" s="5">
         <v>45242</v>
       </c>
       <c r="C138" s="6">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D138" s="6">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="E138" s="7">
         <v>1</v>
@@ -2804,16 +2805,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B139" s="9">
         <v>45243</v>
       </c>
       <c r="C139" s="10">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D139" s="10">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="E139" s="11">
         <v>1</v>
@@ -2821,16 +2822,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B140" s="5">
         <v>45244</v>
       </c>
       <c r="C140" s="6">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D140" s="6">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -2838,16 +2839,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B141" s="9">
         <v>45245</v>
       </c>
       <c r="C141" s="10">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D141" s="10">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="E141" s="11">
         <v>1</v>
@@ -2855,16 +2856,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B142" s="5">
-        <v>45228</v>
+        <v>45246</v>
       </c>
       <c r="C142" s="6">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D142" s="6">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -2872,16 +2873,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B143" s="9">
-        <v>45229</v>
+        <v>45247</v>
       </c>
       <c r="C143" s="10">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="D143" s="10">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="E143" s="11">
         <v>1</v>
@@ -2889,33 +2890,31 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B144" s="5">
-        <v>45230</v>
+        <v>45248</v>
       </c>
       <c r="C144" s="6">
-        <v>105</v>
-      </c>
-      <c r="D144" s="6">
-        <v>505</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D144" s="6"/>
       <c r="E144" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B145" s="9">
-        <v>45231</v>
+        <v>45249</v>
       </c>
       <c r="C145" s="10">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D145" s="10">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="E145" s="11">
         <v>1</v>
@@ -2923,16 +2922,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B146" s="5">
-        <v>45232</v>
+        <v>45250</v>
       </c>
       <c r="C146" s="6">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="D146" s="6">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -2940,16 +2939,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B147" s="9">
-        <v>45233</v>
+        <v>45251</v>
       </c>
       <c r="C147" s="10">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D147" s="10">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E147" s="11">
         <v>1</v>
@@ -2957,16 +2956,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B148" s="5">
-        <v>45234</v>
+        <v>45252</v>
       </c>
       <c r="C148" s="6">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="D148" s="6">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -2974,16 +2973,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B149" s="9">
-        <v>45235</v>
+        <v>45253</v>
       </c>
       <c r="C149" s="10">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D149" s="10">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="E149" s="11">
         <v>1</v>
@@ -2991,16 +2990,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B150" s="5">
-        <v>45237</v>
+        <v>45254</v>
       </c>
       <c r="C150" s="6">
-        <v>324</v>
+        <v>116</v>
       </c>
       <c r="D150" s="6">
-        <v>430</v>
+        <v>209</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -3008,16 +3007,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B151" s="9">
-        <v>45238</v>
+        <v>45255</v>
       </c>
       <c r="C151" s="10">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="D151" s="10">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="E151" s="11">
         <v>1</v>
@@ -3025,16 +3024,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B152" s="5">
-        <v>45241</v>
+        <v>45256</v>
       </c>
       <c r="C152" s="6">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="D152" s="6">
-        <v>406</v>
+        <v>207</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -3042,16 +3041,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B153" s="9">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="C153" s="10">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="D153" s="10">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="E153" s="11">
         <v>1</v>
@@ -3059,16 +3058,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B154" s="5">
-        <v>45244</v>
+        <v>45258</v>
       </c>
       <c r="C154" s="6">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="D154" s="6">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -3076,33 +3075,31 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B155" s="9">
-        <v>45245</v>
+        <v>45259</v>
       </c>
       <c r="C155" s="10">
-        <v>363</v>
-      </c>
-      <c r="D155" s="10">
-        <v>339</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D155" s="10"/>
       <c r="E155" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B156" s="5">
-        <v>45246</v>
+        <v>45260</v>
       </c>
       <c r="C156" s="6">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="D156" s="6">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -3110,16 +3107,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B157" s="9">
-        <v>45247</v>
+        <v>45261</v>
       </c>
       <c r="C157" s="10">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="D157" s="10">
-        <v>390</v>
+        <v>154</v>
       </c>
       <c r="E157" s="11">
         <v>1</v>
@@ -3127,354 +3124,348 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B158" s="5">
-        <v>45251</v>
+        <v>45262</v>
       </c>
       <c r="C158" s="6">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="D158" s="6">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="E158" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B159" s="9">
-        <v>45252</v>
+        <v>45263</v>
       </c>
       <c r="C159" s="10">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="D159" s="10">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="E159" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B160" s="5">
-        <v>45253</v>
+        <v>45264</v>
       </c>
       <c r="C160" s="6">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="D160" s="6">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E160" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B161" s="9">
-        <v>45254</v>
+        <v>45265</v>
       </c>
       <c r="C161" s="10">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D161" s="10">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="E161" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B162" s="5">
-        <v>45255</v>
+        <v>45266</v>
       </c>
       <c r="C162" s="6">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D162" s="6">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="E162" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B163" s="9">
-        <v>45256</v>
+        <v>45267</v>
       </c>
       <c r="C163" s="10">
-        <v>136</v>
-      </c>
-      <c r="D163" s="10">
-        <v>265</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D163" s="10"/>
       <c r="E163" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B164" s="5">
-        <v>45257</v>
+        <v>45268</v>
       </c>
       <c r="C164" s="6">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D164" s="6">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E164" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B165" s="9">
-        <v>45252</v>
-      </c>
-      <c r="C165" s="10"/>
+        <v>45269</v>
+      </c>
+      <c r="C165" s="10">
+        <v>189</v>
+      </c>
       <c r="D165" s="10">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="E165" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B166" s="5">
-        <v>45253</v>
-      </c>
-      <c r="C166" s="6">
-        <v>110</v>
-      </c>
+        <v>45270</v>
+      </c>
+      <c r="C166" s="6"/>
       <c r="D166" s="6">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E166" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B167" s="9">
-        <v>45254</v>
+        <v>45271</v>
       </c>
       <c r="C167" s="10">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D167" s="10">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="E167" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B168" s="5">
-        <v>45255</v>
+        <v>45272</v>
       </c>
       <c r="C168" s="6">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="D168" s="6">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="E168" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B169" s="9">
-        <v>45256</v>
+        <v>45273</v>
       </c>
       <c r="C169" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D169" s="10">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="E169" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B170" s="5">
-        <v>45257</v>
+        <v>45274</v>
       </c>
       <c r="C170" s="6">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D170" s="6">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E170" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B171" s="9">
-        <v>45258</v>
+        <v>45275</v>
       </c>
       <c r="C171" s="10">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D171" s="10">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="E171" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B172" s="5">
-        <v>45259</v>
+        <v>45276</v>
       </c>
       <c r="C172" s="6">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D172" s="6">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E172" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B173" s="9">
-        <v>45213</v>
+        <v>45277</v>
       </c>
       <c r="C173" s="10">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D173" s="10">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="E173" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B174" s="5">
-        <v>45219</v>
+        <v>45278</v>
       </c>
       <c r="C174" s="6">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D174" s="6">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="E174" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B175" s="9">
-        <v>45220</v>
+        <v>45279</v>
       </c>
       <c r="C175" s="10">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="D175" s="10">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="E175" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B176" s="5">
-        <v>45221</v>
+        <v>45280</v>
       </c>
       <c r="C176" s="6">
-        <v>160</v>
-      </c>
-      <c r="D176" s="6">
-        <v>368</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D176" s="6"/>
       <c r="E176" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B177" s="9">
-        <v>45222</v>
+        <v>45281</v>
       </c>
       <c r="C177" s="10">
-        <v>154</v>
-      </c>
-      <c r="D177" s="10">
-        <v>393</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D177" s="10"/>
       <c r="E177" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B178" s="5">
-        <v>45223</v>
+        <v>45229</v>
       </c>
       <c r="C178" s="6">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="D178" s="6">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="E178" s="7">
         <v>2</v>
@@ -3482,16 +3473,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B179" s="9">
-        <v>45224</v>
+        <v>45230</v>
       </c>
       <c r="C179" s="10">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D179" s="10">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="E179" s="11">
         <v>2</v>
@@ -3499,16 +3490,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B180" s="5">
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="C180" s="6">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="D180" s="6">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="E180" s="7">
         <v>2</v>
@@ -3516,16 +3507,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B181" s="9">
-        <v>45226</v>
+        <v>45232</v>
       </c>
       <c r="C181" s="10">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="D181" s="10">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="E181" s="11">
         <v>2</v>
@@ -3533,16 +3524,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B182" s="5">
-        <v>45227</v>
+        <v>45233</v>
       </c>
       <c r="C182" s="6">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="D182" s="6">
-        <v>443</v>
+        <v>170</v>
       </c>
       <c r="E182" s="7">
         <v>2</v>
@@ -3550,16 +3541,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B183" s="9">
-        <v>45222</v>
+        <v>45234</v>
       </c>
       <c r="C183" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D183" s="10">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="E183" s="11">
         <v>2</v>
@@ -3567,16 +3558,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B184" s="5">
-        <v>45223</v>
+        <v>45235</v>
       </c>
       <c r="C184" s="6">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D184" s="6">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="E184" s="7">
         <v>2</v>
@@ -3584,235 +3575,237 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B185" s="9">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="C185" s="10">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="D185" s="10">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="E185" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B186" s="5">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="C186" s="6">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D186" s="6">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="E186" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B187" s="9">
-        <v>45226</v>
+        <v>45231</v>
       </c>
       <c r="C187" s="10">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="D187" s="10">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E187" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B188" s="5">
-        <v>45227</v>
+        <v>45232</v>
       </c>
       <c r="C188" s="6">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D188" s="6">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="E188" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B189" s="9">
-        <v>45228</v>
+        <v>45233</v>
       </c>
       <c r="C189" s="10">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D189" s="10">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="E189" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B190" s="5">
-        <v>45229</v>
+        <v>45234</v>
       </c>
       <c r="C190" s="6">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D190" s="6">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="E190" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B191" s="9">
-        <v>45231</v>
+        <v>45221</v>
       </c>
       <c r="C191" s="10">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="D191" s="10">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="E191" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B192" s="5">
-        <v>45232</v>
+        <v>45222</v>
       </c>
       <c r="C192" s="6">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D192" s="6">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="E192" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B193" s="9">
-        <v>45233</v>
+        <v>45223</v>
       </c>
       <c r="C193" s="10">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="D193" s="10">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="E193" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B194" s="5">
-        <v>45234</v>
+        <v>45224</v>
       </c>
       <c r="C194" s="6">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D194" s="6">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="E194" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B195" s="9">
-        <v>45235</v>
+        <v>45225</v>
       </c>
       <c r="C195" s="10">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D195" s="10">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E195" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B196" s="5">
-        <v>45236</v>
+        <v>45226</v>
       </c>
       <c r="C196" s="6">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="D196" s="6">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="E196" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B197" s="9">
-        <v>45237</v>
+        <v>45227</v>
       </c>
       <c r="C197" s="10">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D197" s="10">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="E197" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B198" s="5">
-        <v>45224</v>
-      </c>
-      <c r="C198" s="6"/>
+        <v>45228</v>
+      </c>
+      <c r="C198" s="6">
+        <v>107</v>
+      </c>
       <c r="D198" s="6">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="E198" s="7">
         <v>1</v>
@@ -3820,16 +3813,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B199" s="9">
-        <v>45225</v>
+        <v>45229</v>
       </c>
       <c r="C199" s="10">
         <v>100</v>
       </c>
       <c r="D199" s="10">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="E199" s="11">
         <v>1</v>
@@ -3837,16 +3830,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B200" s="5">
-        <v>45226</v>
+        <v>45230</v>
       </c>
       <c r="C200" s="6">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D200" s="6">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="E200" s="7">
         <v>1</v>
@@ -3854,16 +3847,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B201" s="9">
-        <v>45227</v>
+        <v>45231</v>
       </c>
       <c r="C201" s="10">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D201" s="10">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="E201" s="11">
         <v>1</v>
@@ -3871,16 +3864,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B202" s="5">
-        <v>45228</v>
+        <v>45232</v>
       </c>
       <c r="C202" s="6">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D202" s="6">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="E202" s="7">
         <v>1</v>
@@ -3888,16 +3881,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B203" s="9">
-        <v>45229</v>
+        <v>45233</v>
       </c>
       <c r="C203" s="10">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D203" s="10">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="E203" s="11">
         <v>1</v>
@@ -3905,16 +3898,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B204" s="5">
-        <v>45230</v>
+        <v>45234</v>
       </c>
       <c r="C204" s="6">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D204" s="6">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="E204" s="7">
         <v>1</v>
@@ -3922,16 +3915,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B205" s="9">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="C205" s="10">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D205" s="10">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="E205" s="11">
         <v>1</v>
@@ -3939,16 +3932,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B206" s="5">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="C206" s="6">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="D206" s="6">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E206" s="7">
         <v>1</v>
@@ -3956,16 +3949,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B207" s="9">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="C207" s="10">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D207" s="10">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="E207" s="11">
         <v>1</v>
@@ -3973,16 +3966,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B208" s="5">
-        <v>45234</v>
+        <v>45238</v>
       </c>
       <c r="C208" s="6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D208" s="6">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="E208" s="7">
         <v>1</v>
@@ -3990,16 +3983,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B209" s="9">
-        <v>45235</v>
+        <v>45239</v>
       </c>
       <c r="C209" s="10">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D209" s="10">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="E209" s="11">
         <v>1</v>
@@ -4007,352 +4000,356 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B210" s="5">
-        <v>45245</v>
-      </c>
-      <c r="C210" s="6"/>
+        <v>45240</v>
+      </c>
+      <c r="C210" s="6">
+        <v>112</v>
+      </c>
       <c r="D210" s="6">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E210" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B211" s="9">
-        <v>45246</v>
+        <v>45241</v>
       </c>
       <c r="C211" s="10">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D211" s="10">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E211" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B212" s="5">
-        <v>45247</v>
+        <v>45242</v>
       </c>
       <c r="C212" s="6">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D212" s="6">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E212" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B213" s="9">
-        <v>45248</v>
+        <v>45243</v>
       </c>
       <c r="C213" s="10">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D213" s="10">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="E213" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B214" s="5">
-        <v>45249</v>
+        <v>45244</v>
       </c>
       <c r="C214" s="6">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D214" s="6">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E214" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B215" s="9">
-        <v>45250</v>
+        <v>45245</v>
       </c>
       <c r="C215" s="10">
-        <v>136</v>
-      </c>
-      <c r="D215" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="D215" s="10">
+        <v>185</v>
+      </c>
       <c r="E215" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B216" s="5">
-        <v>45243</v>
+        <v>45271</v>
       </c>
       <c r="C216" s="6">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="D216" s="6">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E216" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B217" s="9">
-        <v>45244</v>
+        <v>12</v>
       </c>
       <c r="C217" s="10">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="D217" s="10">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="E217" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B218" s="5">
-        <v>45245</v>
+        <v>45273</v>
       </c>
       <c r="C218" s="6">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D218" s="6">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E218" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B219" s="9">
-        <v>45246</v>
+        <v>45274</v>
       </c>
       <c r="C219" s="10">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="D219" s="10">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E219" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B220" s="5">
-        <v>45247</v>
+        <v>45275</v>
       </c>
       <c r="C220" s="6">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D220" s="6">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="E220" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B221" s="9">
-        <v>45248</v>
+        <v>45276</v>
       </c>
       <c r="C221" s="10">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D221" s="10">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="E221" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B222" s="5">
-        <v>45249</v>
+        <v>45277</v>
       </c>
       <c r="C222" s="6">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D222" s="6">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="E222" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B223" s="9">
-        <v>45250</v>
+        <v>45278</v>
       </c>
       <c r="C223" s="10">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D223" s="10">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="E223" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B224" s="5">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="C224" s="6">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D224" s="6">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="E224" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B225" s="9">
-        <v>45252</v>
+        <v>45280</v>
       </c>
       <c r="C225" s="10">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D225" s="10">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="E225" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B226" s="5">
-        <v>45253</v>
+        <v>45281</v>
       </c>
       <c r="C226" s="6">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="D226" s="6">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="E226" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B227" s="9">
-        <v>45254</v>
+        <v>45282</v>
       </c>
       <c r="C227" s="10">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="D227" s="10">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E227" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B228" s="5">
-        <v>45255</v>
+        <v>45283</v>
       </c>
       <c r="C228" s="6">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D228" s="6">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="E228" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B229" s="9">
-        <v>45256</v>
+        <v>45284</v>
       </c>
       <c r="C229" s="10">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="D229" s="10">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="E229" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B230" s="5">
-        <v>45219</v>
+        <v>45285</v>
       </c>
       <c r="C230" s="6">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D230" s="6">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="E230" s="7">
         <v>1</v>
@@ -4360,16 +4357,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B231" s="9">
-        <v>45220</v>
+        <v>45286</v>
       </c>
       <c r="C231" s="10">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D231" s="10">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="E231" s="11">
         <v>1</v>
@@ -4377,16 +4374,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B232" s="5">
-        <v>45221</v>
+        <v>45287</v>
       </c>
       <c r="C232" s="6">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D232" s="6">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E232" s="7">
         <v>1</v>
@@ -4394,16 +4391,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B233" s="9">
-        <v>45222</v>
+        <v>45288</v>
       </c>
       <c r="C233" s="10">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="D233" s="10">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="E233" s="11">
         <v>1</v>
@@ -4411,16 +4408,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B234" s="5">
-        <v>45223</v>
+        <v>45289</v>
       </c>
       <c r="C234" s="6">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="D234" s="6">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="E234" s="7">
         <v>1</v>
@@ -4428,16 +4425,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B235" s="9">
-        <v>45224</v>
+        <v>45290</v>
       </c>
       <c r="C235" s="10">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D235" s="10">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="E235" s="11">
         <v>1</v>
@@ -4445,16 +4442,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B236" s="5">
-        <v>45226</v>
+        <v>45291</v>
       </c>
       <c r="C236" s="6">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D236" s="6">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E236" s="7">
         <v>1</v>
@@ -4462,16 +4459,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B237" s="9">
-        <v>45227</v>
+        <v>45292</v>
       </c>
       <c r="C237" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D237" s="10">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E237" s="11">
         <v>1</v>
@@ -4479,16 +4476,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B238" s="5">
-        <v>45228</v>
+        <v>45293</v>
       </c>
       <c r="C238" s="6">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D238" s="6">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E238" s="7">
         <v>1</v>
@@ -4496,16 +4493,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B239" s="9">
-        <v>45229</v>
+        <v>45294</v>
       </c>
       <c r="C239" s="10">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D239" s="10">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="E239" s="11">
         <v>1</v>
@@ -4513,16 +4510,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B240" s="5">
-        <v>45230</v>
+        <v>45295</v>
       </c>
       <c r="C240" s="6">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D240" s="6">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="E240" s="7">
         <v>1</v>
@@ -4530,16 +4527,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B241" s="9">
-        <v>45231</v>
+        <v>45228</v>
       </c>
       <c r="C241" s="10">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D241" s="10">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="E241" s="11">
         <v>1</v>
@@ -4547,16 +4544,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B242" s="5">
-        <v>45232</v>
+        <v>45229</v>
       </c>
       <c r="C242" s="6">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D242" s="6">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="E242" s="7">
         <v>1</v>
@@ -4564,16 +4561,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B243" s="9">
-        <v>45233</v>
+        <v>45230</v>
       </c>
       <c r="C243" s="10">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D243" s="10">
-        <v>145</v>
+        <v>505</v>
       </c>
       <c r="E243" s="11">
         <v>1</v>
@@ -4581,16 +4578,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B244" s="5">
-        <v>45234</v>
+        <v>45231</v>
       </c>
       <c r="C244" s="6">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D244" s="6">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="E244" s="7">
         <v>1</v>
@@ -4598,18 +4595,2195 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="8">
+        <v>10</v>
+      </c>
+      <c r="B245" s="9">
+        <v>45232</v>
+      </c>
+      <c r="C245" s="10">
+        <v>125</v>
+      </c>
+      <c r="D245" s="10">
+        <v>316</v>
+      </c>
+      <c r="E245" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="4">
+        <v>10</v>
+      </c>
+      <c r="B246" s="5">
+        <v>45233</v>
+      </c>
+      <c r="C246" s="6">
+        <v>177</v>
+      </c>
+      <c r="D246" s="6">
+        <v>235</v>
+      </c>
+      <c r="E246" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="8">
+        <v>10</v>
+      </c>
+      <c r="B247" s="9">
+        <v>45234</v>
+      </c>
+      <c r="C247" s="10">
+        <v>165</v>
+      </c>
+      <c r="D247" s="10">
+        <v>320</v>
+      </c>
+      <c r="E247" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="4">
+        <v>10</v>
+      </c>
+      <c r="B248" s="5">
+        <v>45235</v>
+      </c>
+      <c r="C248" s="6">
+        <v>160</v>
+      </c>
+      <c r="D248" s="6">
+        <v>177</v>
+      </c>
+      <c r="E248" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="8">
+        <v>11</v>
+      </c>
+      <c r="B249" s="9">
+        <v>45237</v>
+      </c>
+      <c r="C249" s="10">
+        <v>324</v>
+      </c>
+      <c r="D249" s="10">
+        <v>430</v>
+      </c>
+      <c r="E249" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="4">
+        <v>11</v>
+      </c>
+      <c r="B250" s="5">
+        <v>45238</v>
+      </c>
+      <c r="C250" s="6">
+        <v>203</v>
+      </c>
+      <c r="D250" s="6">
+        <v>240</v>
+      </c>
+      <c r="E250" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="8">
+        <v>11</v>
+      </c>
+      <c r="B251" s="9">
+        <v>45241</v>
+      </c>
+      <c r="C251" s="10">
+        <v>349</v>
+      </c>
+      <c r="D251" s="10">
+        <v>406</v>
+      </c>
+      <c r="E251" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="4">
+        <v>11</v>
+      </c>
+      <c r="B252" s="5">
+        <v>45243</v>
+      </c>
+      <c r="C252" s="6">
+        <v>312</v>
+      </c>
+      <c r="D252" s="6">
+        <v>293</v>
+      </c>
+      <c r="E252" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="8">
+        <v>11</v>
+      </c>
+      <c r="B253" s="9">
+        <v>45244</v>
+      </c>
+      <c r="C253" s="10">
+        <v>270</v>
+      </c>
+      <c r="D253" s="10">
+        <v>493</v>
+      </c>
+      <c r="E253" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="4">
+        <v>11</v>
+      </c>
+      <c r="B254" s="5">
+        <v>45245</v>
+      </c>
+      <c r="C254" s="6">
+        <v>363</v>
+      </c>
+      <c r="D254" s="6">
+        <v>339</v>
+      </c>
+      <c r="E254" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="8">
+        <v>11</v>
+      </c>
+      <c r="B255" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C255" s="10">
+        <v>309</v>
+      </c>
+      <c r="D255" s="10">
+        <v>352</v>
+      </c>
+      <c r="E255" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="4">
+        <v>11</v>
+      </c>
+      <c r="B256" s="5">
+        <v>45247</v>
+      </c>
+      <c r="C256" s="6">
+        <v>308</v>
+      </c>
+      <c r="D256" s="6">
+        <v>390</v>
+      </c>
+      <c r="E256" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="8">
+        <v>12</v>
+      </c>
+      <c r="B257" s="9">
+        <v>45251</v>
+      </c>
+      <c r="C257" s="10">
+        <v>169</v>
+      </c>
+      <c r="D257" s="10">
+        <v>187</v>
+      </c>
+      <c r="E257" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="4">
+        <v>12</v>
+      </c>
+      <c r="B258" s="5">
+        <v>45252</v>
+      </c>
+      <c r="C258" s="6">
+        <v>178</v>
+      </c>
+      <c r="D258" s="6">
+        <v>167</v>
+      </c>
+      <c r="E258" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="8">
+        <v>12</v>
+      </c>
+      <c r="B259" s="9">
+        <v>45253</v>
+      </c>
+      <c r="C259" s="10">
+        <v>276</v>
+      </c>
+      <c r="D259" s="10">
+        <v>197</v>
+      </c>
+      <c r="E259" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="4">
+        <v>12</v>
+      </c>
+      <c r="B260" s="5">
+        <v>45254</v>
+      </c>
+      <c r="C260" s="6">
+        <v>179</v>
+      </c>
+      <c r="D260" s="6">
+        <v>275</v>
+      </c>
+      <c r="E260" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="8">
+        <v>12</v>
+      </c>
+      <c r="B261" s="9">
+        <v>45255</v>
+      </c>
+      <c r="C261" s="10">
+        <v>127</v>
+      </c>
+      <c r="D261" s="10">
+        <v>278</v>
+      </c>
+      <c r="E261" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="4">
+        <v>12</v>
+      </c>
+      <c r="B262" s="5">
+        <v>45256</v>
+      </c>
+      <c r="C262" s="6">
+        <v>136</v>
+      </c>
+      <c r="D262" s="6">
+        <v>265</v>
+      </c>
+      <c r="E262" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="8">
+        <v>12</v>
+      </c>
+      <c r="B263" s="9">
+        <v>45257</v>
+      </c>
+      <c r="C263" s="10">
+        <v>163</v>
+      </c>
+      <c r="D263" s="10">
+        <v>228</v>
+      </c>
+      <c r="E263" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="4">
+        <v>13</v>
+      </c>
+      <c r="B264" s="5">
+        <v>45262</v>
+      </c>
+      <c r="C264" s="6">
+        <v>102</v>
+      </c>
+      <c r="D264" s="6">
+        <v>190</v>
+      </c>
+      <c r="E264" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="8">
+        <v>13</v>
+      </c>
+      <c r="B265" s="9">
+        <v>45263</v>
+      </c>
+      <c r="C265" s="10">
+        <v>91</v>
+      </c>
+      <c r="D265" s="10">
+        <v>183</v>
+      </c>
+      <c r="E265" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="4">
+        <v>13</v>
+      </c>
+      <c r="B266" s="5">
+        <v>45264</v>
+      </c>
+      <c r="C266" s="6">
+        <v>86</v>
+      </c>
+      <c r="D266" s="6">
+        <v>169</v>
+      </c>
+      <c r="E266" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="8">
+        <v>13</v>
+      </c>
+      <c r="B267" s="9">
+        <v>45265</v>
+      </c>
+      <c r="C267" s="10">
+        <v>83</v>
+      </c>
+      <c r="D267" s="10">
+        <v>200</v>
+      </c>
+      <c r="E267" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="4">
+        <v>13</v>
+      </c>
+      <c r="B268" s="5">
+        <v>45266</v>
+      </c>
+      <c r="C268" s="6">
+        <v>130</v>
+      </c>
+      <c r="D268" s="6">
+        <v>192</v>
+      </c>
+      <c r="E268" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="8">
+        <v>13</v>
+      </c>
+      <c r="B269" s="9">
+        <v>45267</v>
+      </c>
+      <c r="C269" s="10">
+        <v>140</v>
+      </c>
+      <c r="D269" s="10">
+        <v>206</v>
+      </c>
+      <c r="E269" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="4">
+        <v>13</v>
+      </c>
+      <c r="B270" s="5">
+        <v>45268</v>
+      </c>
+      <c r="C270" s="6">
+        <v>76</v>
+      </c>
+      <c r="D270" s="6">
+        <v>180</v>
+      </c>
+      <c r="E270" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="8">
+        <v>13</v>
+      </c>
+      <c r="B271" s="9">
+        <v>45269</v>
+      </c>
+      <c r="C271" s="10">
+        <v>132</v>
+      </c>
+      <c r="D271" s="10">
+        <v>214</v>
+      </c>
+      <c r="E271" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="4">
+        <v>13</v>
+      </c>
+      <c r="B272" s="5">
+        <v>45270</v>
+      </c>
+      <c r="C272" s="6">
+        <v>96</v>
+      </c>
+      <c r="D272" s="6">
+        <v>160</v>
+      </c>
+      <c r="E272" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="8">
+        <v>13</v>
+      </c>
+      <c r="B273" s="9">
+        <v>45271</v>
+      </c>
+      <c r="C273" s="10">
+        <v>90</v>
+      </c>
+      <c r="D273" s="10">
+        <v>158</v>
+      </c>
+      <c r="E273" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="4">
+        <v>13</v>
+      </c>
+      <c r="B274" s="5">
+        <v>45272</v>
+      </c>
+      <c r="C274" s="6">
+        <v>101</v>
+      </c>
+      <c r="D274" s="6">
+        <v>200</v>
+      </c>
+      <c r="E274" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="8">
+        <v>13</v>
+      </c>
+      <c r="B275" s="9">
+        <v>45273</v>
+      </c>
+      <c r="C275" s="10">
+        <v>98</v>
+      </c>
+      <c r="D275" s="10">
+        <v>164</v>
+      </c>
+      <c r="E275" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="4">
+        <v>13</v>
+      </c>
+      <c r="B276" s="5">
+        <v>45274</v>
+      </c>
+      <c r="C276" s="6">
+        <v>79</v>
+      </c>
+      <c r="D276" s="6">
+        <v>149</v>
+      </c>
+      <c r="E276" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="8">
+        <v>13</v>
+      </c>
+      <c r="B277" s="9">
+        <v>45275</v>
+      </c>
+      <c r="C277" s="10">
+        <v>88</v>
+      </c>
+      <c r="D277" s="10">
+        <v>206</v>
+      </c>
+      <c r="E277" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="4">
+        <v>13</v>
+      </c>
+      <c r="B278" s="5">
+        <v>45276</v>
+      </c>
+      <c r="C278" s="6">
+        <v>100</v>
+      </c>
+      <c r="D278" s="6">
+        <v>182</v>
+      </c>
+      <c r="E278" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="8">
+        <v>13</v>
+      </c>
+      <c r="B279" s="9">
+        <v>45277</v>
+      </c>
+      <c r="C279" s="10">
+        <v>109</v>
+      </c>
+      <c r="D279" s="10">
+        <v>200</v>
+      </c>
+      <c r="E279" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="4">
+        <v>13</v>
+      </c>
+      <c r="B280" s="5">
+        <v>45278</v>
+      </c>
+      <c r="C280" s="6">
+        <v>160</v>
+      </c>
+      <c r="D280" s="6">
+        <v>240</v>
+      </c>
+      <c r="E280" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="8">
+        <v>13</v>
+      </c>
+      <c r="B281" s="9">
+        <v>45279</v>
+      </c>
+      <c r="C281" s="10">
+        <v>99</v>
+      </c>
+      <c r="D281" s="10">
+        <v>266</v>
+      </c>
+      <c r="E281" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="4">
+        <v>13</v>
+      </c>
+      <c r="B282" s="5">
+        <v>45280</v>
+      </c>
+      <c r="C282" s="6">
+        <v>102</v>
+      </c>
+      <c r="D282" s="6">
+        <v>190</v>
+      </c>
+      <c r="E282" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" s="8">
+        <v>13</v>
+      </c>
+      <c r="B283" s="9">
+        <v>45281</v>
+      </c>
+      <c r="C283" s="10">
+        <v>89</v>
+      </c>
+      <c r="D283" s="10">
+        <v>204</v>
+      </c>
+      <c r="E283" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="4">
+        <v>13</v>
+      </c>
+      <c r="B284" s="5">
+        <v>45282</v>
+      </c>
+      <c r="C284" s="6">
+        <v>132</v>
+      </c>
+      <c r="D284" s="6">
+        <v>256</v>
+      </c>
+      <c r="E284" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="8">
+        <v>14</v>
+      </c>
+      <c r="B285" s="9">
+        <v>45252</v>
+      </c>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10">
+        <v>320</v>
+      </c>
+      <c r="E285" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="4">
+        <v>14</v>
+      </c>
+      <c r="B286" s="5">
+        <v>45253</v>
+      </c>
+      <c r="C286" s="6">
+        <v>110</v>
+      </c>
+      <c r="D286" s="6">
+        <v>140</v>
+      </c>
+      <c r="E286" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="8">
+        <v>14</v>
+      </c>
+      <c r="B287" s="9">
+        <v>45254</v>
+      </c>
+      <c r="C287" s="10">
+        <v>157</v>
+      </c>
+      <c r="D287" s="10">
+        <v>160</v>
+      </c>
+      <c r="E287" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="4">
+        <v>14</v>
+      </c>
+      <c r="B288" s="5">
+        <v>45255</v>
+      </c>
+      <c r="C288" s="6">
+        <v>197</v>
+      </c>
+      <c r="D288" s="6">
+        <v>130</v>
+      </c>
+      <c r="E288" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="8">
+        <v>14</v>
+      </c>
+      <c r="B289" s="9">
+        <v>45256</v>
+      </c>
+      <c r="C289" s="10">
+        <v>100</v>
+      </c>
+      <c r="D289" s="10">
+        <v>125</v>
+      </c>
+      <c r="E289" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="4">
+        <v>14</v>
+      </c>
+      <c r="B290" s="5">
+        <v>45257</v>
+      </c>
+      <c r="C290" s="6">
+        <v>89</v>
+      </c>
+      <c r="D290" s="6">
+        <v>145</v>
+      </c>
+      <c r="E290" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="8">
+        <v>14</v>
+      </c>
+      <c r="B291" s="9">
+        <v>45258</v>
+      </c>
+      <c r="C291" s="10">
+        <v>96</v>
+      </c>
+      <c r="D291" s="10">
+        <v>194</v>
+      </c>
+      <c r="E291" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="4">
+        <v>14</v>
+      </c>
+      <c r="B292" s="5">
+        <v>45259</v>
+      </c>
+      <c r="C292" s="6">
+        <v>115</v>
+      </c>
+      <c r="D292" s="6">
+        <v>160</v>
+      </c>
+      <c r="E292" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="8">
+        <v>15</v>
+      </c>
+      <c r="B293" s="9">
+        <v>45213</v>
+      </c>
+      <c r="C293" s="10">
+        <v>146</v>
+      </c>
+      <c r="D293" s="10">
+        <v>351</v>
+      </c>
+      <c r="E293" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="4">
+        <v>15</v>
+      </c>
+      <c r="B294" s="5">
+        <v>45219</v>
+      </c>
+      <c r="C294" s="6">
+        <v>130</v>
+      </c>
+      <c r="D294" s="6">
+        <v>322</v>
+      </c>
+      <c r="E294" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="8">
+        <v>15</v>
+      </c>
+      <c r="B295" s="9">
+        <v>45220</v>
+      </c>
+      <c r="C295" s="10">
+        <v>206</v>
+      </c>
+      <c r="D295" s="10">
+        <v>282</v>
+      </c>
+      <c r="E295" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="4">
+        <v>15</v>
+      </c>
+      <c r="B296" s="5">
+        <v>45221</v>
+      </c>
+      <c r="C296" s="6">
+        <v>160</v>
+      </c>
+      <c r="D296" s="6">
+        <v>368</v>
+      </c>
+      <c r="E296" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="8">
+        <v>15</v>
+      </c>
+      <c r="B297" s="9">
+        <v>45222</v>
+      </c>
+      <c r="C297" s="10">
+        <v>154</v>
+      </c>
+      <c r="D297" s="10">
+        <v>393</v>
+      </c>
+      <c r="E297" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="4">
+        <v>15</v>
+      </c>
+      <c r="B298" s="5">
+        <v>45223</v>
+      </c>
+      <c r="C298" s="6">
+        <v>164</v>
+      </c>
+      <c r="D298" s="6">
+        <v>406</v>
+      </c>
+      <c r="E298" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="8">
+        <v>15</v>
+      </c>
+      <c r="B299" s="9">
+        <v>45224</v>
+      </c>
+      <c r="C299" s="10">
+        <v>121</v>
+      </c>
+      <c r="D299" s="10">
+        <v>282</v>
+      </c>
+      <c r="E299" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="4">
+        <v>15</v>
+      </c>
+      <c r="B300" s="5">
+        <v>45225</v>
+      </c>
+      <c r="C300" s="6">
+        <v>188</v>
+      </c>
+      <c r="D300" s="6">
+        <v>270</v>
+      </c>
+      <c r="E300" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" s="8">
+        <v>15</v>
+      </c>
+      <c r="B301" s="9">
+        <v>45226</v>
+      </c>
+      <c r="C301" s="10">
+        <v>296</v>
+      </c>
+      <c r="D301" s="10">
+        <v>392</v>
+      </c>
+      <c r="E301" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="4">
+        <v>15</v>
+      </c>
+      <c r="B302" s="5">
+        <v>45227</v>
+      </c>
+      <c r="C302" s="6">
+        <v>188</v>
+      </c>
+      <c r="D302" s="6">
+        <v>443</v>
+      </c>
+      <c r="E302" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="8">
+        <v>16</v>
+      </c>
+      <c r="B303" s="9">
+        <v>45222</v>
+      </c>
+      <c r="C303" s="10">
+        <v>102</v>
+      </c>
+      <c r="D303" s="10">
+        <v>118</v>
+      </c>
+      <c r="E303" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" s="4">
+        <v>16</v>
+      </c>
+      <c r="B304" s="5">
+        <v>45223</v>
+      </c>
+      <c r="C304" s="6">
+        <v>164</v>
+      </c>
+      <c r="D304" s="6">
+        <v>121</v>
+      </c>
+      <c r="E304" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="8">
+        <v>16</v>
+      </c>
+      <c r="B305" s="9">
+        <v>45224</v>
+      </c>
+      <c r="C305" s="10">
+        <v>161</v>
+      </c>
+      <c r="D305" s="10">
+        <v>164</v>
+      </c>
+      <c r="E305" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="4">
+        <v>16</v>
+      </c>
+      <c r="B306" s="5">
+        <v>45225</v>
+      </c>
+      <c r="C306" s="6">
+        <v>154</v>
+      </c>
+      <c r="D306" s="6">
+        <v>164</v>
+      </c>
+      <c r="E306" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="8">
+        <v>16</v>
+      </c>
+      <c r="B307" s="9">
+        <v>45226</v>
+      </c>
+      <c r="C307" s="10">
+        <v>174</v>
+      </c>
+      <c r="D307" s="10">
+        <v>200</v>
+      </c>
+      <c r="E307" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="4">
+        <v>16</v>
+      </c>
+      <c r="B308" s="5">
+        <v>45227</v>
+      </c>
+      <c r="C308" s="6">
+        <v>162</v>
+      </c>
+      <c r="D308" s="6">
+        <v>136</v>
+      </c>
+      <c r="E308" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="8">
+        <v>16</v>
+      </c>
+      <c r="B309" s="9">
+        <v>45228</v>
+      </c>
+      <c r="C309" s="10">
+        <v>231</v>
+      </c>
+      <c r="D309" s="10">
+        <v>159</v>
+      </c>
+      <c r="E309" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="4">
+        <v>16</v>
+      </c>
+      <c r="B310" s="5">
+        <v>45229</v>
+      </c>
+      <c r="C310" s="6">
+        <v>198</v>
+      </c>
+      <c r="D310" s="6">
+        <v>168</v>
+      </c>
+      <c r="E310" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="8">
+        <v>16</v>
+      </c>
+      <c r="B311" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C311" s="10">
+        <v>194</v>
+      </c>
+      <c r="D311" s="10">
+        <v>157</v>
+      </c>
+      <c r="E311" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="4">
+        <v>16</v>
+      </c>
+      <c r="B312" s="5">
+        <v>45232</v>
+      </c>
+      <c r="C312" s="6">
+        <v>155</v>
+      </c>
+      <c r="D312" s="6">
+        <v>161</v>
+      </c>
+      <c r="E312" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="8">
+        <v>16</v>
+      </c>
+      <c r="B313" s="9">
+        <v>45233</v>
+      </c>
+      <c r="C313" s="10">
+        <v>151</v>
+      </c>
+      <c r="D313" s="10">
+        <v>222</v>
+      </c>
+      <c r="E313" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="4">
+        <v>16</v>
+      </c>
+      <c r="B314" s="5">
+        <v>45234</v>
+      </c>
+      <c r="C314" s="6">
+        <v>128</v>
+      </c>
+      <c r="D314" s="6">
+        <v>147</v>
+      </c>
+      <c r="E314" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" s="8">
+        <v>16</v>
+      </c>
+      <c r="B315" s="9">
+        <v>45235</v>
+      </c>
+      <c r="C315" s="10">
+        <v>119</v>
+      </c>
+      <c r="D315" s="10">
+        <v>142</v>
+      </c>
+      <c r="E315" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="4">
+        <v>16</v>
+      </c>
+      <c r="B316" s="5">
+        <v>45236</v>
+      </c>
+      <c r="C316" s="6">
+        <v>163</v>
+      </c>
+      <c r="D316" s="6">
+        <v>167</v>
+      </c>
+      <c r="E316" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="8">
+        <v>16</v>
+      </c>
+      <c r="B317" s="9">
+        <v>45237</v>
+      </c>
+      <c r="C317" s="10">
+        <v>143</v>
+      </c>
+      <c r="D317" s="10">
+        <v>119</v>
+      </c>
+      <c r="E317" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" s="4">
+        <v>17</v>
+      </c>
+      <c r="B318" s="5">
+        <v>45224</v>
+      </c>
+      <c r="C318" s="6"/>
+      <c r="D318" s="6">
+        <v>110</v>
+      </c>
+      <c r="E318" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="8">
+        <v>17</v>
+      </c>
+      <c r="B319" s="9">
+        <v>45225</v>
+      </c>
+      <c r="C319" s="10">
+        <v>100</v>
+      </c>
+      <c r="D319" s="10">
+        <v>118</v>
+      </c>
+      <c r="E319" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="4">
+        <v>17</v>
+      </c>
+      <c r="B320" s="5">
+        <v>45226</v>
+      </c>
+      <c r="C320" s="6">
+        <v>110</v>
+      </c>
+      <c r="D320" s="6">
+        <v>117</v>
+      </c>
+      <c r="E320" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" s="8">
+        <v>17</v>
+      </c>
+      <c r="B321" s="9">
+        <v>45227</v>
+      </c>
+      <c r="C321" s="10">
+        <v>116</v>
+      </c>
+      <c r="D321" s="10">
+        <v>127</v>
+      </c>
+      <c r="E321" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" s="4">
+        <v>17</v>
+      </c>
+      <c r="B322" s="5">
+        <v>45228</v>
+      </c>
+      <c r="C322" s="6">
+        <v>97</v>
+      </c>
+      <c r="D322" s="6">
+        <v>121</v>
+      </c>
+      <c r="E322" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" s="8">
+        <v>17</v>
+      </c>
+      <c r="B323" s="9">
+        <v>45229</v>
+      </c>
+      <c r="C323" s="10">
+        <v>115</v>
+      </c>
+      <c r="D323" s="10">
+        <v>91</v>
+      </c>
+      <c r="E323" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" s="4">
+        <v>17</v>
+      </c>
+      <c r="B324" s="5">
+        <v>45230</v>
+      </c>
+      <c r="C324" s="6">
+        <v>154</v>
+      </c>
+      <c r="D324" s="6">
+        <v>96</v>
+      </c>
+      <c r="E324" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" s="8">
+        <v>17</v>
+      </c>
+      <c r="B325" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C325" s="10">
+        <v>82</v>
+      </c>
+      <c r="D325" s="10">
+        <v>122</v>
+      </c>
+      <c r="E325" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" s="4">
+        <v>17</v>
+      </c>
+      <c r="B326" s="5">
+        <v>45232</v>
+      </c>
+      <c r="C326" s="6">
+        <v>109</v>
+      </c>
+      <c r="D326" s="6">
+        <v>128</v>
+      </c>
+      <c r="E326" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="8">
+        <v>17</v>
+      </c>
+      <c r="B327" s="9">
+        <v>45233</v>
+      </c>
+      <c r="C327" s="10">
+        <v>111</v>
+      </c>
+      <c r="D327" s="10">
+        <v>124</v>
+      </c>
+      <c r="E327" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" s="4">
+        <v>17</v>
+      </c>
+      <c r="B328" s="5">
+        <v>45234</v>
+      </c>
+      <c r="C328" s="6">
+        <v>95</v>
+      </c>
+      <c r="D328" s="6">
+        <v>109</v>
+      </c>
+      <c r="E328" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" s="8">
+        <v>17</v>
+      </c>
+      <c r="B329" s="9">
+        <v>45235</v>
+      </c>
+      <c r="C329" s="10">
+        <v>111</v>
+      </c>
+      <c r="D329" s="10">
+        <v>100</v>
+      </c>
+      <c r="E329" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" s="4">
+        <v>18</v>
+      </c>
+      <c r="B330" s="5">
+        <v>45245</v>
+      </c>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6">
+        <v>138</v>
+      </c>
+      <c r="E330" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" s="8">
+        <v>18</v>
+      </c>
+      <c r="B331" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C331" s="10">
+        <v>104</v>
+      </c>
+      <c r="D331" s="10">
+        <v>205</v>
+      </c>
+      <c r="E331" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="4">
+        <v>18</v>
+      </c>
+      <c r="B332" s="5">
+        <v>45247</v>
+      </c>
+      <c r="C332" s="6">
+        <v>90</v>
+      </c>
+      <c r="D332" s="6">
+        <v>110</v>
+      </c>
+      <c r="E332" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="8">
+        <v>18</v>
+      </c>
+      <c r="B333" s="9">
+        <v>45248</v>
+      </c>
+      <c r="C333" s="10">
+        <v>129</v>
+      </c>
+      <c r="D333" s="10">
+        <v>122</v>
+      </c>
+      <c r="E333" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="4">
+        <v>18</v>
+      </c>
+      <c r="B334" s="5">
+        <v>45249</v>
+      </c>
+      <c r="C334" s="6">
+        <v>96</v>
+      </c>
+      <c r="D334" s="6">
+        <v>230</v>
+      </c>
+      <c r="E334" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="8">
+        <v>18</v>
+      </c>
+      <c r="B335" s="9">
+        <v>45250</v>
+      </c>
+      <c r="C335" s="10">
+        <v>136</v>
+      </c>
+      <c r="D335" s="10"/>
+      <c r="E335" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="4">
+        <v>18</v>
+      </c>
+      <c r="B336" s="5">
+        <v>45279</v>
+      </c>
+      <c r="C336" s="6">
+        <v>74</v>
+      </c>
+      <c r="D336" s="6">
+        <v>130</v>
+      </c>
+      <c r="E336" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="8">
+        <v>18</v>
+      </c>
+      <c r="B337" s="9">
+        <v>45280</v>
+      </c>
+      <c r="C337" s="10">
+        <v>162</v>
+      </c>
+      <c r="D337" s="10">
+        <v>103</v>
+      </c>
+      <c r="E337" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="4">
+        <v>18</v>
+      </c>
+      <c r="B338" s="5">
+        <v>45281</v>
+      </c>
+      <c r="C338" s="6">
+        <v>67</v>
+      </c>
+      <c r="D338" s="6">
+        <v>116</v>
+      </c>
+      <c r="E338" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" s="8">
+        <v>18</v>
+      </c>
+      <c r="B339" s="9">
+        <v>45282</v>
+      </c>
+      <c r="C339" s="10">
+        <v>93</v>
+      </c>
+      <c r="D339" s="10">
+        <v>184</v>
+      </c>
+      <c r="E339" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" s="4">
+        <v>18</v>
+      </c>
+      <c r="B340" s="5">
+        <v>45283</v>
+      </c>
+      <c r="C340" s="6">
+        <v>52</v>
+      </c>
+      <c r="D340" s="6">
+        <v>128</v>
+      </c>
+      <c r="E340" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" s="8">
+        <v>18</v>
+      </c>
+      <c r="B341" s="9">
+        <v>45284</v>
+      </c>
+      <c r="C341" s="10">
+        <v>195</v>
+      </c>
+      <c r="D341" s="10"/>
+      <c r="E341" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="4">
+        <v>18</v>
+      </c>
+      <c r="B342" s="5">
+        <v>45285</v>
+      </c>
+      <c r="C342" s="6"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" s="8">
+        <v>18</v>
+      </c>
+      <c r="B343" s="9">
+        <v>45286</v>
+      </c>
+      <c r="C343" s="10">
+        <v>94</v>
+      </c>
+      <c r="D343" s="10">
+        <v>109</v>
+      </c>
+      <c r="E343" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" s="4">
+        <v>18</v>
+      </c>
+      <c r="B344" s="5">
+        <v>45287</v>
+      </c>
+      <c r="C344" s="6">
+        <v>110</v>
+      </c>
+      <c r="D344" s="6"/>
+      <c r="E344" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" s="8">
+        <v>19</v>
+      </c>
+      <c r="B345" s="9">
+        <v>45243</v>
+      </c>
+      <c r="C345" s="10">
+        <v>180</v>
+      </c>
+      <c r="D345" s="10">
+        <v>148</v>
+      </c>
+      <c r="E345" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" s="4">
+        <v>19</v>
+      </c>
+      <c r="B346" s="5">
+        <v>45244</v>
+      </c>
+      <c r="C346" s="6">
+        <v>156</v>
+      </c>
+      <c r="D346" s="6">
+        <v>135</v>
+      </c>
+      <c r="E346" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" s="8">
+        <v>19</v>
+      </c>
+      <c r="B347" s="9">
+        <v>45245</v>
+      </c>
+      <c r="C347" s="10">
+        <v>136</v>
+      </c>
+      <c r="D347" s="10">
+        <v>161</v>
+      </c>
+      <c r="E347" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" s="4">
+        <v>19</v>
+      </c>
+      <c r="B348" s="5">
+        <v>45246</v>
+      </c>
+      <c r="C348" s="6">
+        <v>148</v>
+      </c>
+      <c r="D348" s="6">
+        <v>197</v>
+      </c>
+      <c r="E348" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" s="8">
+        <v>19</v>
+      </c>
+      <c r="B349" s="9">
+        <v>45247</v>
+      </c>
+      <c r="C349" s="10">
+        <v>142</v>
+      </c>
+      <c r="D349" s="10">
+        <v>255</v>
+      </c>
+      <c r="E349" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" s="4">
+        <v>19</v>
+      </c>
+      <c r="B350" s="5">
+        <v>45248</v>
+      </c>
+      <c r="C350" s="6">
+        <v>139</v>
+      </c>
+      <c r="D350" s="6">
+        <v>142</v>
+      </c>
+      <c r="E350" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" s="8">
+        <v>19</v>
+      </c>
+      <c r="B351" s="9">
+        <v>45249</v>
+      </c>
+      <c r="C351" s="10">
+        <v>150</v>
+      </c>
+      <c r="D351" s="10">
+        <v>134</v>
+      </c>
+      <c r="E351" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" s="4">
+        <v>19</v>
+      </c>
+      <c r="B352" s="5">
+        <v>45250</v>
+      </c>
+      <c r="C352" s="6">
+        <v>156</v>
+      </c>
+      <c r="D352" s="6">
+        <v>135</v>
+      </c>
+      <c r="E352" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" s="8">
+        <v>19</v>
+      </c>
+      <c r="B353" s="9">
+        <v>45251</v>
+      </c>
+      <c r="C353" s="10">
+        <v>137</v>
+      </c>
+      <c r="D353" s="10">
+        <v>147</v>
+      </c>
+      <c r="E353" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" s="4">
+        <v>19</v>
+      </c>
+      <c r="B354" s="5">
+        <v>45252</v>
+      </c>
+      <c r="C354" s="6">
+        <v>143</v>
+      </c>
+      <c r="D354" s="6">
+        <v>277</v>
+      </c>
+      <c r="E354" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" s="8">
+        <v>19</v>
+      </c>
+      <c r="B355" s="9">
+        <v>45253</v>
+      </c>
+      <c r="C355" s="10">
+        <v>155</v>
+      </c>
+      <c r="D355" s="10">
+        <v>122</v>
+      </c>
+      <c r="E355" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" s="4">
+        <v>19</v>
+      </c>
+      <c r="B356" s="5">
+        <v>45254</v>
+      </c>
+      <c r="C356" s="6">
+        <v>152</v>
+      </c>
+      <c r="D356" s="6">
+        <v>121</v>
+      </c>
+      <c r="E356" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" s="8">
+        <v>19</v>
+      </c>
+      <c r="B357" s="9">
+        <v>45255</v>
+      </c>
+      <c r="C357" s="10">
+        <v>134</v>
+      </c>
+      <c r="D357" s="10">
+        <v>129</v>
+      </c>
+      <c r="E357" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" s="4">
+        <v>19</v>
+      </c>
+      <c r="B358" s="5">
+        <v>45256</v>
+      </c>
+      <c r="C358" s="6">
+        <v>135</v>
+      </c>
+      <c r="D358" s="6">
+        <v>235</v>
+      </c>
+      <c r="E358" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" s="8">
         <v>20</v>
       </c>
-      <c r="B245" s="9">
+      <c r="B359" s="9">
+        <v>45219</v>
+      </c>
+      <c r="C359" s="10">
+        <v>130</v>
+      </c>
+      <c r="D359" s="10">
+        <v>133</v>
+      </c>
+      <c r="E359" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" s="4">
+        <v>20</v>
+      </c>
+      <c r="B360" s="5">
+        <v>45220</v>
+      </c>
+      <c r="C360" s="6">
+        <v>150</v>
+      </c>
+      <c r="D360" s="6">
+        <v>154</v>
+      </c>
+      <c r="E360" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" s="8">
+        <v>20</v>
+      </c>
+      <c r="B361" s="9">
+        <v>45221</v>
+      </c>
+      <c r="C361" s="10">
+        <v>145</v>
+      </c>
+      <c r="D361" s="10">
+        <v>150</v>
+      </c>
+      <c r="E361" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" s="4">
+        <v>20</v>
+      </c>
+      <c r="B362" s="5">
+        <v>45222</v>
+      </c>
+      <c r="C362" s="6">
+        <v>140</v>
+      </c>
+      <c r="D362" s="6">
+        <v>145</v>
+      </c>
+      <c r="E362" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" s="8">
+        <v>20</v>
+      </c>
+      <c r="B363" s="9">
+        <v>45223</v>
+      </c>
+      <c r="C363" s="10">
+        <v>166</v>
+      </c>
+      <c r="D363" s="10">
+        <v>150</v>
+      </c>
+      <c r="E363" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" s="4">
+        <v>20</v>
+      </c>
+      <c r="B364" s="5">
+        <v>45224</v>
+      </c>
+      <c r="C364" s="6">
+        <v>147</v>
+      </c>
+      <c r="D364" s="6">
+        <v>145</v>
+      </c>
+      <c r="E364" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" s="8">
+        <v>20</v>
+      </c>
+      <c r="B365" s="9">
+        <v>45226</v>
+      </c>
+      <c r="C365" s="10">
+        <v>170</v>
+      </c>
+      <c r="D365" s="10">
+        <v>143</v>
+      </c>
+      <c r="E365" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" s="4">
+        <v>20</v>
+      </c>
+      <c r="B366" s="5">
+        <v>45227</v>
+      </c>
+      <c r="C366" s="6">
+        <v>140</v>
+      </c>
+      <c r="D366" s="6">
+        <v>154</v>
+      </c>
+      <c r="E366" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" s="8">
+        <v>20</v>
+      </c>
+      <c r="B367" s="9">
+        <v>45228</v>
+      </c>
+      <c r="C367" s="10">
+        <v>130</v>
+      </c>
+      <c r="D367" s="10">
+        <v>140</v>
+      </c>
+      <c r="E367" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" s="4">
+        <v>20</v>
+      </c>
+      <c r="B368" s="5">
+        <v>45229</v>
+      </c>
+      <c r="C368" s="6">
+        <v>135</v>
+      </c>
+      <c r="D368" s="6">
+        <v>151</v>
+      </c>
+      <c r="E368" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="8">
+        <v>20</v>
+      </c>
+      <c r="B369" s="9">
+        <v>45230</v>
+      </c>
+      <c r="C369" s="10">
+        <v>133</v>
+      </c>
+      <c r="D369" s="10">
+        <v>145</v>
+      </c>
+      <c r="E369" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" s="4">
+        <v>20</v>
+      </c>
+      <c r="B370" s="5">
+        <v>45231</v>
+      </c>
+      <c r="C370" s="6">
+        <v>140</v>
+      </c>
+      <c r="D370" s="6">
+        <v>143</v>
+      </c>
+      <c r="E370" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" s="8">
+        <v>20</v>
+      </c>
+      <c r="B371" s="9">
+        <v>45232</v>
+      </c>
+      <c r="C371" s="10">
+        <v>135</v>
+      </c>
+      <c r="D371" s="10">
+        <v>150</v>
+      </c>
+      <c r="E371" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" s="4">
+        <v>20</v>
+      </c>
+      <c r="B372" s="5">
+        <v>45233</v>
+      </c>
+      <c r="C372" s="6">
+        <v>141</v>
+      </c>
+      <c r="D372" s="6">
+        <v>145</v>
+      </c>
+      <c r="E372" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" s="8">
+        <v>20</v>
+      </c>
+      <c r="B373" s="9">
+        <v>45234</v>
+      </c>
+      <c r="C373" s="10">
+        <v>151</v>
+      </c>
+      <c r="D373" s="10">
+        <v>143</v>
+      </c>
+      <c r="E373" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" s="4">
+        <v>20</v>
+      </c>
+      <c r="B374" s="5">
         <v>45235</v>
       </c>
-      <c r="C245" s="10">
+      <c r="C374" s="6">
         <v>140</v>
       </c>
-      <c r="D245" s="10">
+      <c r="D374" s="6">
         <v>148</v>
       </c>
-      <c r="E245" s="11">
+      <c r="E374" s="7">
         <v>1</v>
       </c>
     </row>
